--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/Angle/f20_18RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/Angle/f20_18RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\F\Angle\f20_18RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEB1422-E8A4-4BBB-ADAC-6D1C3E7B460F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB09685-5B2F-4885-97AE-6DB6635F90FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6B9B5689-58D0-41EF-8E2C-D494DF994838}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3B13DD18-9AD5-4C94-9317-62E330B128DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B2C81F-C665-4644-927A-1BB093B855D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5804B9-6ACA-4048-AFC4-A8FABA4A7F36}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/Angle/f20_18RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/Angle/f20_18RPM/RMSE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\F\Angle\f20_18RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB09685-5B2F-4885-97AE-6DB6635F90FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0A5758-548F-47EB-8940-A99E8E9E384C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3B13DD18-9AD5-4C94-9317-62E330B128DD}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{F8A97575-25B4-4FA0-806F-510B6F8A656F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5804B9-6ACA-4048-AFC4-A8FABA4A7F36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0E2165-1F00-4F39-B359-9B3A3AE845F2}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/Angle/f20_18RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/Angle/f20_18RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\F\Angle\f20_18RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0A5758-548F-47EB-8940-A99E8E9E384C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2FE340-F626-4DA3-9D9A-A0699F5D1553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{F8A97575-25B4-4FA0-806F-510B6F8A656F}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{6A78AC25-2216-4DC4-9C04-89CA7420A2EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0E2165-1F00-4F39-B359-9B3A3AE845F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1241F063-EA78-44D4-9D96-A9A7991A955A}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
